--- a/Working Documentation/Database Tables and API endpoints.xlsx
+++ b/Working Documentation/Database Tables and API endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARJUN\Documents\PMASD\Working Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77225320-FF55-4282-A1E2-958A29335D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42CE0EE-8C0B-4929-B467-BB7AED7B214F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
   <si>
     <t>Model</t>
   </si>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>Table useful to prescribe investigations based on a diagnosis</t>
-  </si>
-  <si>
-    <t>Default: As of 28-Jun-2020</t>
   </si>
   <si>
     <t>doctor_mobile</t>
@@ -527,12 +524,6 @@
     <t>ReferredTo</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
     <t>Non medical receipts</t>
   </si>
   <si>
@@ -782,9 +773,6 @@
     <t>doctor_id</t>
   </si>
   <si>
-    <t>percentage_cut</t>
-  </si>
-  <si>
     <t>PersonAddress (abstract)</t>
   </si>
   <si>
@@ -794,12 +782,6 @@
     <t>(derived from PersonMobile)</t>
   </si>
   <si>
-    <t># TODO : Add Professional Service</t>
-  </si>
-  <si>
-    <t>First Consultation, Follow Up etc.</t>
-  </si>
-  <si>
     <t>financial_year</t>
   </si>
   <si>
@@ -812,9 +794,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>/api/patient/</t>
-  </si>
-  <si>
     <t>search/</t>
   </si>
   <si>
@@ -843,9 +822,6 @@
   </si>
   <si>
     <t>User defined patient ID</t>
-  </si>
-  <si>
-    <t>profile</t>
   </si>
   <si>
     <t>Profile</t>
@@ -904,6 +880,51 @@
   <si>
     <t>To delete a particular history item of a particular history type (pk corresponds to primary key of that history item in that particular history table)
 (Update functionality also available if required. Frontend integration is necessary)</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>profiles</t>
+  </si>
+  <si>
+    <t>auth/delete_token/</t>
+  </si>
+  <si>
+    <t>api/patient/</t>
+  </si>
+  <si>
+    <t>To delete the authentication token for a particular user</t>
+  </si>
+  <si>
+    <t>online_consultation</t>
+  </si>
+  <si>
+    <t>professional_service</t>
+  </si>
+  <si>
+    <t>ProfessionalService</t>
+  </si>
+  <si>
+    <t>CharFIeld</t>
+  </si>
+  <si>
+    <t>professional_services</t>
+  </si>
+  <si>
+    <t>Default: Unknown</t>
+  </si>
+  <si>
+    <t>Default: "As of 28 Jun 2018"</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -1366,42 +1387,42 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -1409,35 +1430,35 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1448,90 +1469,90 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
@@ -1539,7 +1560,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>24</v>
@@ -1550,31 +1571,31 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F51">
         <v>100</v>
@@ -1582,7 +1603,7 @@
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F52">
         <v>500</v>
@@ -1590,7 +1611,7 @@
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -1598,30 +1619,30 @@
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
@@ -1629,50 +1650,50 @@
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G63" s="12"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G64" s="12"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E73" t="s">
         <v>24</v>
@@ -1680,7 +1701,7 @@
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
         <v>24</v>
@@ -1688,25 +1709,25 @@
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -1714,25 +1735,25 @@
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E87" t="s">
         <v>24</v>
@@ -1740,7 +1761,7 @@
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
         <v>31</v>
@@ -1748,12 +1769,12 @@
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
@@ -1761,7 +1782,7 @@
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
@@ -1769,75 +1790,75 @@
         <v>6</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G95" s="12"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G98" s="12"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" s="12"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G100" s="12"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
@@ -1845,7 +1866,7 @@
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E108" t="s">
         <v>31</v>
@@ -1853,7 +1874,7 @@
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
@@ -1861,7 +1882,7 @@
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
         <v>31</v>
@@ -1869,21 +1890,21 @@
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E111" t="s">
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E114" t="s">
         <v>24</v>
@@ -1891,12 +1912,12 @@
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1912,11 +1933,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1986,7 @@
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1976,7 +1997,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -2060,7 +2081,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
@@ -2205,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -2213,7 +2234,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -2255,7 +2276,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2277,7 +2298,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2291,7 +2312,7 @@
         <v>37</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -2299,10 +2320,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -2311,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2344,7 +2365,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2366,7 +2387,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2399,7 +2420,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D60" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
@@ -2495,7 +2516,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>38</v>
@@ -2541,16 +2562,16 @@
         <v>64</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D81" s="7" t="s">
         <v>39</v>
       </c>
@@ -2558,7 +2579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D82" s="7" t="s">
         <v>120</v>
       </c>
@@ -2566,140 +2587,143 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="2">
+        <v>100</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D84" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="2">
+        <v>100</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D85" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D86" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D84" s="7" t="s">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D87" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="2" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D90" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D88" s="7" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="E91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D89" s="7" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D92" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D90" s="7" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D93" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D91" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D93" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C96" s="2" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D96" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C99" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D97" s="7" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D100" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D98" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D100" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>7</v>
@@ -2709,334 +2733,334 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="2" t="s">
-        <v>68</v>
+      <c r="D101" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F105" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="2" t="s">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D106" s="7" t="s">
+      <c r="D108" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D109" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="2">
+      <c r="E109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2">
         <v>50</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="8" t="s">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D110" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="2">
+      <c r="E110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C110" s="2" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D111" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D112" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D113" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D114" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D116" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D117" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C117" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="7" t="s">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D118" s="7" t="s">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D121" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="2">
+      <c r="E121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D119" s="2" t="s">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="2">
+      <c r="E122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D120" s="2" t="s">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D123" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="2">
+      <c r="E123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="2" t="s">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D126" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D124" s="7" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D127" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="2">
+      <c r="E127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D125" s="2" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="2">
+      <c r="E128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="2">
         <v>100</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D126" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D129" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F129" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B129" s="2" t="s">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D130" s="7" t="s">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D133" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="2">
+      <c r="E133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D131" s="2" t="s">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D134" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F134" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B134" s="2" t="s">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="D137" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="D135" s="7" t="s">
+    <row r="138" spans="2:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D138" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="2">
+      <c r="E138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="2">
         <v>5</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D136" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D137" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F137" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D138" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D139" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="2">
         <v>100</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="2">
-        <v>50</v>
-      </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D140" s="2" t="s">
-        <v>102</v>
+      <c r="D140" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F140" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D141" s="2" t="s">
-        <v>110</v>
+      <c r="D141" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>7</v>
@@ -3047,285 +3071,336 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D142" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>7</v>
+      </c>
+      <c r="F142" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D143" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F143" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D144" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D145" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D147" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="2">
+      <c r="E147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D145" s="2" t="s">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D148" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D146" s="7" t="s">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D149" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D147" s="7" t="s">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D150" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C150" s="2" t="s">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D154" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D155" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D156" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D157" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F158" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D162" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C165" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D151" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E151" s="2" t="s">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C166" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D167" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D168" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D152" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D153" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D154" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="2">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D172" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F172" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C175" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D176" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D155" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F155" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B158" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D159" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C162" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C163" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B182" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D183" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="2">
+        <v>6</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B186" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F186" s="2">
         <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D164" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D165" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C168" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D169" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F169" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C172" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D173" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D174" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D178" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D182" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" s="2">
-        <v>6</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3336,11 +3411,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97019E76-0B8E-44AC-A16B-6E74715B4D41}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,85 +3428,99 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>256</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" t="s">
-        <v>254</v>
-      </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>263</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
